--- a/Facebook_SignUp_TestCases.xlsx
+++ b/Facebook_SignUp_TestCases.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="228">
   <si>
     <t>Step</t>
   </si>
@@ -235,77 +235,74 @@
     <t>5.1</t>
   </si>
   <si>
-    <t>First name and surname are accepted</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>Provide a valid first name "Yu"</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>Provide a valid surname "O"</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>Provide a valid data in all other fields</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>Validate providing a mobile number with country code</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>Provide a valid phone number with country code</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>Filll all other fields with valid data</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>Validate providing a mobile number without country code</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>7.2</t>
-  </si>
-  <si>
-    <t>Provide a valid phone number without country code</t>
-  </si>
-  <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>7.4</t>
-  </si>
-  <si>
-    <t>Validate sign up with valid age in the range of 13 and 18 years old</t>
-  </si>
-  <si>
-    <t>8.1</t>
-  </si>
-  <si>
     <t>- User registration is successful
 - User is redirected to Newsfeed Page</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>Provide a valid first name "Yu"</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>Provide a valid surname "O"</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>Provide a valid data in all other fields</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>Validate providing a mobile number with country code</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>Provide a valid phone number with country code</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>Filll all other fields with valid data</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>Validate providing a mobile number without country code</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>Provide a valid phone number without country code</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>Validate sign up with valid age in the range of 13 and 18 years old</t>
+  </si>
+  <si>
+    <t>8.1</t>
   </si>
   <si>
     <t>8.2</t>
@@ -1536,6 +1533,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2131,8 +2131,8 @@
   </sheetPr>
   <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
@@ -2580,7 +2580,7 @@
       <c r="B31" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="25" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="11" t="s">
@@ -2704,7 +2704,7 @@
       <c r="B40" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="25" t="s">
         <v>66</v>
       </c>
       <c r="D40" s="11" t="s">
@@ -2934,7 +2934,7 @@
         <v>11</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>13</v>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="57" customHeight="1" spans="1:7">
       <c r="A57" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>91</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="11"/>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="58" customHeight="1" spans="1:7">
       <c r="A58" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B58" s="10" t="s">
         <v>79</v>
@@ -2971,7 +2971,7 @@
     </row>
     <row r="59" customHeight="1" spans="1:7">
       <c r="A59" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>27</v>
@@ -2987,7 +2987,7 @@
         <v>9</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -3000,13 +3000,13 @@
     </row>
     <row r="61" customHeight="1" spans="1:7">
       <c r="A61" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>13</v>
@@ -3017,10 +3017,10 @@
     </row>
     <row r="62" customHeight="1" spans="1:7">
       <c r="A62" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>97</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="11"/>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="63" customHeight="1" spans="1:7">
       <c r="A63" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>79</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="64" customHeight="1" spans="1:7">
       <c r="A64" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>27</v>
@@ -3059,7 +3059,7 @@
         <v>10</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -3072,13 +3072,13 @@
     </row>
     <row r="66" customHeight="1" spans="1:7">
       <c r="A66" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>13</v>
@@ -3089,10 +3089,10 @@
     </row>
     <row r="67" customHeight="1" spans="1:7">
       <c r="A67" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>102</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="11"/>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="68" customHeight="1" spans="1:7">
       <c r="A68" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>79</v>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="69" customHeight="1" spans="1:7">
       <c r="A69" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>27</v>
@@ -3131,7 +3131,7 @@
         <v>11</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -3144,13 +3144,13 @@
     </row>
     <row r="71" customHeight="1" spans="1:7">
       <c r="A71" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>13</v>
@@ -3161,10 +3161,10 @@
     </row>
     <row r="72" customHeight="1" spans="1:7">
       <c r="A72" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>108</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="11"/>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="73" customHeight="1" spans="1:7">
       <c r="A73" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>79</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="74" customHeight="1" spans="1:7">
       <c r="A74" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>27</v>
@@ -3203,7 +3203,7 @@
         <v>12</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -3216,13 +3216,13 @@
     </row>
     <row r="76" customHeight="1" spans="1:7">
       <c r="A76" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B76" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>13</v>
@@ -3233,10 +3233,10 @@
     </row>
     <row r="77" customHeight="1" spans="1:7">
       <c r="A77" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B77" s="24" t="s">
         <v>114</v>
-      </c>
-      <c r="B77" s="24" t="s">
-        <v>115</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="11"/>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="78" customHeight="1" spans="1:7">
       <c r="A78" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>79</v>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="79" customHeight="1" spans="1:7">
       <c r="A79" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>27</v>
@@ -3275,7 +3275,7 @@
         <v>13</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3288,13 +3288,13 @@
     </row>
     <row r="81" customHeight="1" spans="1:7">
       <c r="A81" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D81" s="11" t="s">
         <v>13</v>
@@ -3305,10 +3305,10 @@
     </row>
     <row r="82" customHeight="1" spans="1:7">
       <c r="A82" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B82" s="24" t="s">
         <v>120</v>
-      </c>
-      <c r="B82" s="24" t="s">
-        <v>121</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="11"/>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="83" customHeight="1" spans="1:7">
       <c r="A83" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>79</v>
@@ -3331,7 +3331,7 @@
     </row>
     <row r="84" customHeight="1" spans="1:7">
       <c r="A84" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>27</v>
@@ -3504,7 +3504,7 @@
   </sheetPr>
   <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
       <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
@@ -3549,7 +3549,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -3563,7 +3563,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -3579,10 +3579,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>126</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>127</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>13</v>
@@ -3596,7 +3596,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
@@ -3609,7 +3609,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
@@ -3622,7 +3622,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -3638,10 +3638,10 @@
         <v>29</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>13</v>
@@ -3655,7 +3655,7 @@
         <v>31</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
@@ -3668,7 +3668,7 @@
         <v>32</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
@@ -3681,7 +3681,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -3697,10 +3697,10 @@
         <v>41</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>13</v>
@@ -3714,7 +3714,7 @@
         <v>43</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
@@ -3727,7 +3727,7 @@
         <v>45</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
@@ -3740,7 +3740,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -3756,10 +3756,10 @@
         <v>53</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>13</v>
@@ -3773,7 +3773,7 @@
         <v>54</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
@@ -3786,7 +3786,7 @@
         <v>56</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
@@ -3799,7 +3799,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -3815,10 +3815,10 @@
         <v>65</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>13</v>
@@ -3832,7 +3832,7 @@
         <v>67</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
@@ -3845,7 +3845,7 @@
         <v>69</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
@@ -3858,7 +3858,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -3874,10 +3874,10 @@
         <v>75</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>13</v>
@@ -3891,7 +3891,7 @@
         <v>76</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
@@ -3904,7 +3904,7 @@
         <v>78</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="11"/>
@@ -3917,7 +3917,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -3933,10 +3933,10 @@
         <v>82</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>13</v>
@@ -3950,7 +3950,7 @@
         <v>83</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
@@ -3963,7 +3963,7 @@
         <v>85</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
@@ -3976,7 +3976,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
@@ -3992,13 +3992,13 @@
         <v>88</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C32" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="19" t="s">
         <v>149</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>150</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="20"/>
@@ -4007,10 +4007,10 @@
     </row>
     <row r="33" ht="26.25" customHeight="1" spans="1:8">
       <c r="A33" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="19"/>
@@ -4021,10 +4021,10 @@
     </row>
     <row r="34" ht="21.75" customHeight="1" spans="1:8">
       <c r="A34" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="19"/>
@@ -4038,7 +4038,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
@@ -4051,16 +4051,16 @@
     </row>
     <row r="36" ht="19.5" customHeight="1" spans="1:8">
       <c r="A36" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="20"/>
@@ -4069,10 +4069,10 @@
     </row>
     <row r="37" ht="26.25" customHeight="1" spans="1:8">
       <c r="A37" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="19"/>
@@ -4083,10 +4083,10 @@
     </row>
     <row r="38" ht="21.75" customHeight="1" spans="1:8">
       <c r="A38" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="19"/>
@@ -4100,7 +4100,7 @@
         <v>10</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -4113,13 +4113,13 @@
     </row>
     <row r="40" ht="19.5" customHeight="1" spans="1:7">
       <c r="A40" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>13</v>
@@ -4130,10 +4130,10 @@
     </row>
     <row r="41" ht="64" customHeight="1" spans="1:7">
       <c r="A41" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="11"/>
@@ -4143,10 +4143,10 @@
     </row>
     <row r="42" ht="21.75" customHeight="1" spans="1:7">
       <c r="A42" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="11"/>
@@ -4159,7 +4159,7 @@
         <v>11</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -4172,13 +4172,13 @@
     </row>
     <row r="44" ht="19.5" customHeight="1" spans="1:7">
       <c r="A44" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>13</v>
@@ -4189,10 +4189,10 @@
     </row>
     <row r="45" ht="65" customHeight="1" spans="1:7">
       <c r="A45" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="11"/>
@@ -4202,10 +4202,10 @@
     </row>
     <row r="46" ht="21.75" customHeight="1" spans="1:7">
       <c r="A46" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="11"/>
@@ -4218,7 +4218,7 @@
         <v>12</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -4231,13 +4231,13 @@
     </row>
     <row r="48" ht="19.5" customHeight="1" spans="1:7">
       <c r="A48" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>13</v>
@@ -4248,10 +4248,10 @@
     </row>
     <row r="49" ht="41.25" customHeight="1" spans="1:7">
       <c r="A49" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="11"/>
@@ -4261,10 +4261,10 @@
     </row>
     <row r="50" ht="21.75" customHeight="1" spans="1:7">
       <c r="A50" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="11"/>
@@ -4277,7 +4277,7 @@
         <v>13</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -4290,13 +4290,13 @@
     </row>
     <row r="52" ht="19.5" customHeight="1" spans="1:7">
       <c r="A52" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>13</v>
@@ -4307,10 +4307,10 @@
     </row>
     <row r="53" ht="41.25" customHeight="1" spans="1:7">
       <c r="A53" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="11"/>
@@ -4320,10 +4320,10 @@
     </row>
     <row r="54" ht="21.75" customHeight="1" spans="1:7">
       <c r="A54" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="11"/>
@@ -4336,7 +4336,7 @@
         <v>14</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -4349,13 +4349,13 @@
     </row>
     <row r="56" ht="19.5" customHeight="1" spans="1:7">
       <c r="A56" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>13</v>
@@ -4366,10 +4366,10 @@
     </row>
     <row r="57" ht="41.25" customHeight="1" spans="1:7">
       <c r="A57" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="11"/>
@@ -4379,10 +4379,10 @@
     </row>
     <row r="58" ht="21.75" customHeight="1" spans="1:7">
       <c r="A58" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="11"/>
@@ -4395,7 +4395,7 @@
         <v>15</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -4408,13 +4408,13 @@
     </row>
     <row r="60" ht="42.75" customHeight="1" spans="1:7">
       <c r="A60" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>176</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>13</v>
@@ -4425,10 +4425,10 @@
     </row>
     <row r="61" ht="18.75" customHeight="1" spans="1:7">
       <c r="A61" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>178</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="11"/>
@@ -4438,10 +4438,10 @@
     </row>
     <row r="62" ht="49" customHeight="1" spans="1:7">
       <c r="A62" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>179</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>180</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="11"/>
@@ -4451,10 +4451,10 @@
     </row>
     <row r="63" ht="21.75" customHeight="1" spans="1:7">
       <c r="A63" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="11"/>
@@ -4467,7 +4467,7 @@
         <v>16</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -4480,13 +4480,13 @@
     </row>
     <row r="65" ht="19.5" customHeight="1" spans="1:7">
       <c r="A65" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="10" t="s">
         <v>183</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>184</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>13</v>
@@ -4497,10 +4497,10 @@
     </row>
     <row r="66" ht="41.25" customHeight="1" spans="1:7">
       <c r="A66" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>186</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="11"/>
@@ -4510,10 +4510,10 @@
     </row>
     <row r="67" ht="21.75" customHeight="1" spans="1:7">
       <c r="A67" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="11"/>
@@ -4526,7 +4526,7 @@
         <v>17</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -4539,13 +4539,13 @@
     </row>
     <row r="69" ht="19.5" customHeight="1" spans="1:7">
       <c r="A69" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>13</v>
@@ -4556,10 +4556,10 @@
     </row>
     <row r="70" ht="41.25" customHeight="1" spans="1:7">
       <c r="A70" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>190</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>191</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="11"/>
@@ -4569,10 +4569,10 @@
     </row>
     <row r="71" ht="21.75" customHeight="1" spans="1:7">
       <c r="A71" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="11"/>
@@ -4585,7 +4585,7 @@
         <v>18</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -4598,13 +4598,13 @@
     </row>
     <row r="73" ht="19.5" customHeight="1" spans="1:7">
       <c r="A73" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>194</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>195</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>13</v>
@@ -4615,10 +4615,10 @@
     </row>
     <row r="74" ht="33.75" customHeight="1" spans="1:7">
       <c r="A74" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B74" s="10" t="s">
         <v>196</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>197</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="11"/>
@@ -4628,10 +4628,10 @@
     </row>
     <row r="75" ht="21.75" customHeight="1" spans="1:7">
       <c r="A75" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="11"/>
@@ -4644,7 +4644,7 @@
         <v>19</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -4657,13 +4657,13 @@
     </row>
     <row r="77" ht="19.5" customHeight="1" spans="1:7">
       <c r="A77" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" s="10" t="s">
         <v>200</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>201</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>13</v>
@@ -4674,10 +4674,10 @@
     </row>
     <row r="78" ht="41.25" customHeight="1" spans="1:7">
       <c r="A78" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B78" s="10" t="s">
         <v>202</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>203</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="11"/>
@@ -4687,10 +4687,10 @@
     </row>
     <row r="79" ht="21.75" customHeight="1" spans="1:7">
       <c r="A79" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="11"/>
@@ -4703,7 +4703,7 @@
         <v>20</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -4716,13 +4716,13 @@
     </row>
     <row r="81" ht="19.5" customHeight="1" spans="1:7">
       <c r="A81" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C81" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="D81" s="11" t="s">
         <v>13</v>
@@ -4733,10 +4733,10 @@
     </row>
     <row r="82" ht="41.25" customHeight="1" spans="1:7">
       <c r="A82" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B82" s="10" t="s">
         <v>208</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>209</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="11"/>
@@ -4746,10 +4746,10 @@
     </row>
     <row r="83" ht="21.75" customHeight="1" spans="1:7">
       <c r="A83" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C83" s="10"/>
       <c r="D83" s="11"/>
@@ -4762,7 +4762,7 @@
         <v>21</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -4775,13 +4775,13 @@
     </row>
     <row r="85" ht="19.5" customHeight="1" spans="1:7">
       <c r="A85" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C85" s="10" t="s">
         <v>212</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>213</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>13</v>
@@ -4792,10 +4792,10 @@
     </row>
     <row r="86" ht="41.25" customHeight="1" spans="1:7">
       <c r="A86" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B86" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>215</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="11"/>
@@ -4805,10 +4805,10 @@
     </row>
     <row r="87" ht="21.75" customHeight="1" spans="1:7">
       <c r="A87" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="11"/>
@@ -4821,7 +4821,7 @@
         <v>22</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -4834,13 +4834,13 @@
     </row>
     <row r="89" ht="19.5" customHeight="1" spans="1:7">
       <c r="A89" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" s="10" t="s">
         <v>218</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>219</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>13</v>
@@ -4851,10 +4851,10 @@
     </row>
     <row r="90" ht="49" customHeight="1" spans="1:7">
       <c r="A90" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B90" s="10" t="s">
         <v>220</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>221</v>
       </c>
       <c r="C90" s="10"/>
       <c r="D90" s="11"/>
@@ -4864,10 +4864,10 @@
     </row>
     <row r="91" ht="21.75" customHeight="1" spans="1:7">
       <c r="A91" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="11"/>
@@ -4880,7 +4880,7 @@
         <v>23</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -4893,13 +4893,13 @@
     </row>
     <row r="93" ht="19.5" customHeight="1" spans="1:7">
       <c r="A93" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C93" s="10" t="s">
         <v>224</v>
-      </c>
-      <c r="B93" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>225</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>13</v>
@@ -4910,10 +4910,10 @@
     </row>
     <row r="94" ht="49" customHeight="1" spans="1:7">
       <c r="A94" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B94" s="10" t="s">
         <v>226</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>227</v>
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="11"/>
@@ -4923,10 +4923,10 @@
     </row>
     <row r="95" ht="21.75" customHeight="1" spans="1:7">
       <c r="A95" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="11"/>
